--- a/src/test/resources/testDataResources/TestData.xlsx
+++ b/src/test/resources/testDataResources/TestData.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>TestScenarioName</t>
+  </si>
   <si>
     <t>Component</t>
   </si>
@@ -37,6 +40,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Login to Heroku SC01</t>
+  </si>
+  <si>
     <t>Logging and results</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
   </si>
   <si>
     <t>Test Description</t>
+  </si>
+  <si>
+    <t>Login to Heroku SC02</t>
   </si>
   <si>
     <t>6.9.13.4</t>
@@ -72,12 +81,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,10 +95,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,21 +133,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,39 +149,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +163,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -184,6 +186,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -215,23 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,31 +248,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,151 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,32 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +452,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -505,6 +505,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -513,175 +539,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,22 +1008,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.4380952380952" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.2190476190476" customWidth="1"/>
+    <col min="1" max="1" width="19.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="16.4380952380952" customWidth="1"/>
+    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.2190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1043,51 +1046,60 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
